--- a/BackTest/2020-01-11 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-11 BackTest LUNA.xlsx
@@ -12809,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
@@ -12879,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
@@ -13264,7 +13264,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
@@ -13299,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
@@ -13579,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
@@ -23516,14 +23516,20 @@
         <v>240.7483333333334</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
       </c>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>237</v>
+      </c>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -23551,14 +23557,20 @@
         <v>240.6350000000001</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
       </c>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>236.9</v>
+      </c>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -23586,14 +23598,20 @@
         <v>240.4950000000001</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
       </c>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>237.2</v>
+      </c>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -23621,14 +23639,20 @@
         <v>240.3800000000001</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
       </c>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>237.1</v>
+      </c>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -23656,14 +23680,20 @@
         <v>240.2600000000001</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
       </c>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>237.1</v>
+      </c>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -23691,14 +23721,20 @@
         <v>240.1416666666668</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
       </c>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>236.8</v>
+      </c>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -23733,7 +23769,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -23768,7 +23808,11 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -23803,7 +23847,11 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -23838,7 +23886,11 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -23873,7 +23925,11 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -23908,7 +23964,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -23943,7 +24003,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -23978,7 +24042,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24013,7 +24081,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24048,7 +24120,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +24159,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24118,7 +24198,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24153,7 +24237,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24188,7 +24276,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24223,7 +24315,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24258,7 +24354,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24293,7 +24393,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24328,7 +24432,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24363,7 +24471,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24398,7 +24510,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -24433,7 +24549,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -24468,7 +24588,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -24503,7 +24627,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -24538,7 +24666,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -24573,7 +24705,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -24608,7 +24744,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -24643,7 +24783,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -24678,7 +24822,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -24713,7 +24861,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -24748,7 +24900,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -24783,7 +24939,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -24818,7 +24978,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -24853,7 +25017,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -24888,7 +25056,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -24923,7 +25095,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -24958,7 +25134,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -24993,7 +25173,11 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25028,7 +25212,11 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25063,7 +25251,11 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25098,7 +25290,11 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25133,7 +25329,11 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25168,7 +25368,11 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25203,7 +25407,11 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25238,7 +25446,11 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25273,7 +25485,11 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25308,7 +25524,11 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -25343,7 +25563,11 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -25378,7 +25602,11 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -25413,7 +25641,11 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -25448,7 +25680,11 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -25483,7 +25719,11 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -25518,7 +25758,11 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -25553,7 +25797,11 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -25588,7 +25836,11 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -25623,7 +25875,11 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -25658,7 +25914,11 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -25693,7 +25953,11 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -25728,7 +25992,11 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -25763,7 +26031,11 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -25798,7 +26070,11 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -25833,7 +26109,11 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -25868,7 +26148,11 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -25903,7 +26187,11 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -25938,7 +26226,11 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -25973,7 +26265,11 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26008,7 +26304,11 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26043,7 +26343,11 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26078,7 +26382,11 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26113,7 +26421,11 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26148,7 +26460,11 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -26183,7 +26499,11 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -26218,7 +26538,11 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -26253,7 +26577,11 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -26288,7 +26616,11 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -26323,7 +26655,11 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -26358,7 +26694,11 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -26393,7 +26733,11 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -26428,7 +26772,11 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -26463,7 +26811,11 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -26498,7 +26850,11 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -26533,7 +26889,11 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -26568,7 +26928,11 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -26603,7 +26967,11 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -26638,7 +27006,11 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -26673,7 +27045,11 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -26708,7 +27084,11 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -26743,7 +27123,11 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -26778,7 +27162,11 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -26813,7 +27201,11 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -26848,7 +27240,11 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -26883,7 +27279,11 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -26918,7 +27318,11 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -26953,7 +27357,11 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -26988,7 +27396,11 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27023,7 +27435,11 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27058,7 +27474,11 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -27093,7 +27513,11 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -27128,7 +27552,11 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -27163,7 +27591,11 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -27198,7 +27630,11 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -27233,7 +27669,11 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -27268,7 +27708,11 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -27303,7 +27747,11 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -27338,7 +27786,11 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -27373,7 +27825,11 @@
       </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -27408,7 +27864,11 @@
       </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -27443,7 +27903,11 @@
       </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -27478,7 +27942,11 @@
       </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -27506,18 +27974,16 @@
         <v>237.48</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I775" t="n">
         <v>0</v>
       </c>
-      <c r="J775" t="n">
-        <v>235.6</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
       <c r="L775" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M775" t="n">
@@ -27547,14 +28013,12 @@
         <v>237.44</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="n">
         <v>0</v>
       </c>
-      <c r="J776" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
       <c r="L776" t="inlineStr">
         <is>
@@ -27588,14 +28052,12 @@
         <v>237.3966666666667</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I777" t="n">
         <v>0</v>
       </c>
-      <c r="J777" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
       <c r="L777" t="inlineStr">
         <is>
@@ -27629,14 +28091,12 @@
         <v>237.3533333333334</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I778" t="n">
         <v>0</v>
       </c>
-      <c r="J778" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
       <c r="L778" t="inlineStr">
         <is>
@@ -27670,14 +28130,12 @@
         <v>237.31</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I779" t="n">
         <v>0</v>
       </c>
-      <c r="J779" t="n">
-        <v>235.6</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
       <c r="L779" t="inlineStr">
         <is>
@@ -27711,14 +28169,12 @@
         <v>237.2766666666667</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I780" t="n">
         <v>0</v>
       </c>
-      <c r="J780" t="n">
-        <v>235.6</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
       <c r="L780" t="inlineStr">
         <is>
@@ -27752,14 +28208,12 @@
         <v>237.2433333333333</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I781" t="n">
         <v>0</v>
       </c>
-      <c r="J781" t="n">
-        <v>235.9</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
       <c r="L781" t="inlineStr">
         <is>
@@ -27793,14 +28247,12 @@
         <v>237.1933333333333</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I782" t="n">
         <v>0</v>
       </c>
-      <c r="J782" t="n">
-        <v>235.9</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
       <c r="L782" t="inlineStr">
         <is>
@@ -27834,14 +28286,12 @@
         <v>237.13</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I783" t="n">
         <v>0</v>
       </c>
-      <c r="J783" t="n">
-        <v>235.8</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
       <c r="L783" t="inlineStr">
         <is>
@@ -27875,14 +28325,12 @@
         <v>237.0766666666667</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I784" t="n">
         <v>0</v>
       </c>
-      <c r="J784" t="n">
-        <v>235.9</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
       <c r="L784" t="inlineStr">
         <is>
@@ -27916,14 +28364,12 @@
         <v>237.0299999999999</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I785" t="n">
         <v>0</v>
       </c>
-      <c r="J785" t="n">
-        <v>236</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
       <c r="L785" t="inlineStr">
         <is>
@@ -27957,14 +28403,12 @@
         <v>236.9966666666666</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I786" t="n">
         <v>0</v>
       </c>
-      <c r="J786" t="n">
-        <v>235.9</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
       <c r="L786" t="inlineStr">
         <is>
@@ -27998,14 +28442,12 @@
         <v>236.965</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I787" t="n">
         <v>0</v>
       </c>
-      <c r="J787" t="n">
-        <v>235.9</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
       <c r="L787" t="inlineStr">
         <is>
@@ -28039,14 +28481,12 @@
         <v>236.935</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I788" t="n">
         <v>0</v>
       </c>
-      <c r="J788" t="n">
-        <v>236</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
       <c r="L788" t="inlineStr">
         <is>
@@ -28080,14 +28520,12 @@
         <v>236.9083333333333</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I789" t="n">
         <v>0</v>
       </c>
-      <c r="J789" t="n">
-        <v>235.9</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
       <c r="L789" t="inlineStr">
         <is>
@@ -28121,14 +28559,12 @@
         <v>236.8633333333333</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I790" t="n">
         <v>0</v>
       </c>
-      <c r="J790" t="n">
-        <v>236</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
       <c r="L790" t="inlineStr">
         <is>
@@ -28162,14 +28598,12 @@
         <v>236.8333333333333</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I791" t="n">
         <v>0</v>
       </c>
-      <c r="J791" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
       <c r="L791" t="inlineStr">
         <is>
@@ -28203,14 +28637,12 @@
         <v>236.8033333333333</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I792" t="n">
         <v>0</v>
       </c>
-      <c r="J792" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
       <c r="L792" t="inlineStr">
         <is>
@@ -28244,14 +28676,12 @@
         <v>236.775</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I793" t="n">
         <v>0</v>
       </c>
-      <c r="J793" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
       <c r="L793" t="inlineStr">
         <is>
@@ -28285,14 +28715,12 @@
         <v>236.7566666666666</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I794" t="n">
         <v>0</v>
       </c>
-      <c r="J794" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
       <c r="L794" t="inlineStr">
         <is>
@@ -28326,14 +28754,12 @@
         <v>236.7333333333333</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I795" t="n">
         <v>0</v>
       </c>
-      <c r="J795" t="n">
-        <v>237</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
       <c r="L795" t="inlineStr">
         <is>
@@ -28367,14 +28793,12 @@
         <v>236.7116666666666</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I796" t="n">
         <v>0</v>
       </c>
-      <c r="J796" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
       <c r="L796" t="inlineStr">
         <is>
@@ -28408,14 +28832,12 @@
         <v>236.6966666666666</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I797" t="n">
         <v>0</v>
       </c>
-      <c r="J797" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
       <c r="L797" t="inlineStr">
         <is>
@@ -28449,14 +28871,12 @@
         <v>236.6783333333333</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I798" t="n">
         <v>0</v>
       </c>
-      <c r="J798" t="n">
-        <v>237</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
       <c r="L798" t="inlineStr">
         <is>
@@ -28490,14 +28910,12 @@
         <v>236.6599999999999</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I799" t="n">
         <v>0</v>
       </c>
-      <c r="J799" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
       <c r="L799" t="inlineStr">
         <is>
@@ -28531,14 +28949,12 @@
         <v>236.6466666666666</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I800" t="n">
         <v>0</v>
       </c>
-      <c r="J800" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
       <c r="L800" t="inlineStr">
         <is>
@@ -28572,14 +28988,12 @@
         <v>236.63</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I801" t="n">
         <v>0</v>
       </c>
-      <c r="J801" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
       <c r="L801" t="inlineStr">
         <is>
@@ -28613,14 +29027,12 @@
         <v>236.6116666666666</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I802" t="n">
         <v>0</v>
       </c>
-      <c r="J802" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
       <c r="L802" t="inlineStr">
         <is>
@@ -28654,14 +29066,12 @@
         <v>236.5966666666666</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I803" t="n">
         <v>0</v>
       </c>
-      <c r="J803" t="n">
-        <v>237</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
       <c r="L803" t="inlineStr">
         <is>
@@ -28695,14 +29105,12 @@
         <v>236.5816666666666</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I804" t="n">
         <v>0</v>
       </c>
-      <c r="J804" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr"/>
       <c r="L804" t="inlineStr">
         <is>
@@ -28736,14 +29144,12 @@
         <v>236.5666666666666</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I805" t="n">
         <v>0</v>
       </c>
-      <c r="J805" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
       <c r="L805" t="inlineStr">
         <is>
@@ -28777,14 +29183,12 @@
         <v>236.55</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I806" t="n">
         <v>0</v>
       </c>
-      <c r="J806" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
       <c r="L806" t="inlineStr">
         <is>
@@ -28818,14 +29222,12 @@
         <v>236.5316666666666</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="n">
         <v>0</v>
       </c>
-      <c r="J807" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
       <c r="L807" t="inlineStr">
         <is>
@@ -28859,14 +29261,12 @@
         <v>236.5166666666666</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I808" t="n">
         <v>0</v>
       </c>
-      <c r="J808" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
       <c r="L808" t="inlineStr">
         <is>
@@ -28900,14 +29300,12 @@
         <v>236.5016666666666</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I809" t="n">
         <v>0</v>
       </c>
-      <c r="J809" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr"/>
       <c r="L809" t="inlineStr">
         <is>
@@ -28941,14 +29339,12 @@
         <v>236.485</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I810" t="n">
         <v>0</v>
       </c>
-      <c r="J810" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
       <c r="L810" t="inlineStr">
         <is>
@@ -28982,14 +29378,12 @@
         <v>236.4716666666667</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I811" t="n">
         <v>0</v>
       </c>
-      <c r="J811" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr"/>
       <c r="L811" t="inlineStr">
         <is>
@@ -29023,14 +29417,12 @@
         <v>236.4616666666666</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I812" t="n">
         <v>0</v>
       </c>
-      <c r="J812" t="n">
-        <v>237.1</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
       <c r="L812" t="inlineStr">
         <is>
@@ -29064,14 +29456,12 @@
         <v>236.4483333333333</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I813" t="n">
         <v>0</v>
       </c>
-      <c r="J813" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
       <c r="L813" t="inlineStr">
         <is>
@@ -29105,14 +29495,12 @@
         <v>236.4383333333333</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I814" t="n">
         <v>0</v>
       </c>
-      <c r="J814" t="n">
-        <v>237</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr"/>
       <c r="L814" t="inlineStr">
         <is>
@@ -29146,14 +29534,12 @@
         <v>236.4333333333333</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I815" t="n">
         <v>0</v>
       </c>
-      <c r="J815" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
       <c r="L815" t="inlineStr">
         <is>
@@ -29187,14 +29573,12 @@
         <v>236.4283333333333</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I816" t="n">
         <v>0</v>
       </c>
-      <c r="J816" t="n">
-        <v>237.1</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
       <c r="L816" t="inlineStr">
         <is>
@@ -29228,14 +29612,12 @@
         <v>236.425</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I817" t="n">
         <v>0</v>
       </c>
-      <c r="J817" t="n">
-        <v>237.3</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
       <c r="L817" t="inlineStr">
         <is>
@@ -29269,14 +29651,12 @@
         <v>236.4216666666666</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I818" t="n">
         <v>0</v>
       </c>
-      <c r="J818" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
       <c r="L818" t="inlineStr">
         <is>
@@ -29310,14 +29690,12 @@
         <v>236.425</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I819" t="n">
         <v>0</v>
       </c>
-      <c r="J819" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
       <c r="L819" t="inlineStr">
         <is>
@@ -29351,14 +29729,12 @@
         <v>236.4333333333333</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I820" t="n">
         <v>0</v>
       </c>
-      <c r="J820" t="n">
-        <v>237.3</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
       <c r="L820" t="inlineStr">
         <is>
@@ -29392,14 +29768,12 @@
         <v>236.4333333333333</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I821" t="n">
         <v>0</v>
       </c>
-      <c r="J821" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
       <c r="L821" t="inlineStr">
         <is>
@@ -29433,14 +29807,12 @@
         <v>236.4416666666666</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I822" t="n">
         <v>0</v>
       </c>
-      <c r="J822" t="n">
-        <v>237.1</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
       <c r="L822" t="inlineStr">
         <is>
@@ -29474,14 +29846,12 @@
         <v>236.45</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I823" t="n">
         <v>0</v>
       </c>
-      <c r="J823" t="n">
-        <v>237</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
       <c r="L823" t="inlineStr">
         <is>
@@ -29515,14 +29885,12 @@
         <v>236.4633333333333</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I824" t="n">
         <v>0</v>
       </c>
-      <c r="J824" t="n">
-        <v>237.1</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
       <c r="L824" t="inlineStr">
         <is>
@@ -29556,14 +29924,12 @@
         <v>236.4766666666666</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I825" t="n">
         <v>0</v>
       </c>
-      <c r="J825" t="n">
-        <v>237.3</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
       <c r="L825" t="inlineStr">
         <is>
@@ -29597,14 +29963,12 @@
         <v>236.4899999999999</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I826" t="n">
         <v>0</v>
       </c>
-      <c r="J826" t="n">
-        <v>237.3</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
       <c r="L826" t="inlineStr">
         <is>
@@ -29638,14 +30002,12 @@
         <v>236.5016666666666</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I827" t="n">
         <v>0</v>
       </c>
-      <c r="J827" t="n">
-        <v>237.2</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
       <c r="L827" t="inlineStr">
         <is>
@@ -34710,14 +35072,12 @@
         <v>237.9866666666667</v>
       </c>
       <c r="H957" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I957" t="n">
         <v>0</v>
       </c>
-      <c r="J957" t="n">
-        <v>235.9</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr"/>
       <c r="L957" t="inlineStr">
         <is>
@@ -34751,12 +35111,14 @@
         <v>237.9566666666667</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I958" t="n">
         <v>0</v>
       </c>
-      <c r="J958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>235.9</v>
+      </c>
       <c r="K958" t="inlineStr"/>
       <c r="L958" t="inlineStr">
         <is>
@@ -34837,7 +35199,7 @@
         <v>0</v>
       </c>
       <c r="J960" t="n">
-        <v>235.9</v>
+        <v>235.8</v>
       </c>
       <c r="K960" t="inlineStr"/>
       <c r="L960" t="inlineStr">
@@ -34878,7 +35240,7 @@
         <v>0</v>
       </c>
       <c r="J961" t="n">
-        <v>235.4</v>
+        <v>235.2</v>
       </c>
       <c r="K961" t="inlineStr"/>
       <c r="L961" t="inlineStr">
@@ -34919,7 +35281,7 @@
         <v>0</v>
       </c>
       <c r="J962" t="n">
-        <v>235</v>
+        <v>235.2</v>
       </c>
       <c r="K962" t="inlineStr"/>
       <c r="L962" t="inlineStr">
@@ -34960,7 +35322,7 @@
         <v>0</v>
       </c>
       <c r="J963" t="n">
-        <v>235.2</v>
+        <v>235.3</v>
       </c>
       <c r="K963" t="inlineStr"/>
       <c r="L963" t="inlineStr">
@@ -34995,14 +35357,12 @@
         <v>237.7783333333334</v>
       </c>
       <c r="H964" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I964" t="n">
         <v>0</v>
       </c>
-      <c r="J964" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr"/>
       <c r="L964" t="inlineStr">
         <is>
@@ -35036,14 +35396,12 @@
         <v>237.7416666666667</v>
       </c>
       <c r="H965" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I965" t="n">
         <v>0</v>
       </c>
-      <c r="J965" t="n">
-        <v>235.9</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr"/>
       <c r="L965" t="inlineStr">
         <is>
@@ -35233,14 +35591,12 @@
         <v>237.555</v>
       </c>
       <c r="H970" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I970" t="n">
         <v>0</v>
       </c>
-      <c r="J970" t="n">
-        <v>235.2</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr"/>
       <c r="L970" t="inlineStr">
         <is>
@@ -35274,14 +35630,12 @@
         <v>237.52</v>
       </c>
       <c r="H971" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I971" t="n">
         <v>0</v>
       </c>
-      <c r="J971" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr"/>
       <c r="L971" t="inlineStr">
         <is>
@@ -35315,14 +35669,12 @@
         <v>237.475</v>
       </c>
       <c r="H972" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I972" t="n">
         <v>0</v>
       </c>
-      <c r="J972" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr"/>
       <c r="L972" t="inlineStr">
         <is>
@@ -35356,14 +35708,12 @@
         <v>237.4216666666667</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I973" t="n">
         <v>0</v>
       </c>
-      <c r="J973" t="n">
-        <v>235.2</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr"/>
       <c r="L973" t="inlineStr">
         <is>
@@ -35397,14 +35747,12 @@
         <v>237.3766666666666</v>
       </c>
       <c r="H974" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I974" t="n">
         <v>0</v>
       </c>
-      <c r="J974" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr"/>
       <c r="L974" t="inlineStr">
         <is>
@@ -35438,14 +35786,12 @@
         <v>237.3283333333333</v>
       </c>
       <c r="H975" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I975" t="n">
         <v>0</v>
       </c>
-      <c r="J975" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr"/>
       <c r="L975" t="inlineStr">
         <is>
@@ -35479,14 +35825,12 @@
         <v>237.2399999999999</v>
       </c>
       <c r="H976" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I976" t="n">
         <v>0</v>
       </c>
-      <c r="J976" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr"/>
       <c r="L976" t="inlineStr">
         <is>
@@ -35520,14 +35864,12 @@
         <v>237.1449999999999</v>
       </c>
       <c r="H977" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I977" t="n">
         <v>0</v>
       </c>
-      <c r="J977" t="n">
-        <v>235.9</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr"/>
       <c r="L977" t="inlineStr">
         <is>
@@ -35561,14 +35903,12 @@
         <v>237.0466666666666</v>
       </c>
       <c r="H978" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I978" t="n">
         <v>0</v>
       </c>
-      <c r="J978" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr"/>
       <c r="L978" t="inlineStr">
         <is>
@@ -35602,14 +35942,12 @@
         <v>236.9383333333332</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I979" t="n">
         <v>0</v>
       </c>
-      <c r="J979" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr"/>
       <c r="L979" t="inlineStr">
         <is>
@@ -35643,14 +35981,12 @@
         <v>236.8433333333332</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I980" t="n">
         <v>0</v>
       </c>
-      <c r="J980" t="n">
-        <v>235.1</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr"/>
       <c r="L980" t="inlineStr">
         <is>
@@ -35840,14 +36176,12 @@
         <v>236.5483333333333</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I985" t="n">
         <v>0</v>
       </c>
-      <c r="J985" t="n">
-        <v>236.5</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr"/>
       <c r="L985" t="inlineStr">
         <is>
@@ -35881,14 +36215,12 @@
         <v>236.4666666666666</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I986" t="n">
         <v>0</v>
       </c>
-      <c r="J986" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr"/>
       <c r="L986" t="inlineStr">
         <is>
@@ -35922,14 +36254,12 @@
         <v>236.3899999999999</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I987" t="n">
         <v>0</v>
       </c>
-      <c r="J987" t="n">
-        <v>236.4</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr"/>
       <c r="L987" t="inlineStr">
         <is>
@@ -35963,14 +36293,12 @@
         <v>236.3299999999999</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I988" t="n">
         <v>0</v>
       </c>
-      <c r="J988" t="n">
-        <v>236.3</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr"/>
       <c r="L988" t="inlineStr">
         <is>
@@ -36004,14 +36332,12 @@
         <v>236.2933333333333</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I989" t="n">
         <v>0</v>
       </c>
-      <c r="J989" t="n">
-        <v>236.4</v>
-      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr"/>
       <c r="L989" t="inlineStr">
         <is>
@@ -36045,14 +36371,12 @@
         <v>236.2566666666666</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I990" t="n">
         <v>0</v>
       </c>
-      <c r="J990" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr"/>
       <c r="L990" t="inlineStr">
         <is>
@@ -36086,14 +36410,12 @@
         <v>236.2199999999999</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I991" t="n">
         <v>0</v>
       </c>
-      <c r="J991" t="n">
-        <v>237.3</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr"/>
       <c r="L991" t="inlineStr">
         <is>
@@ -36439,14 +36761,12 @@
         <v>236.1233333333333</v>
       </c>
       <c r="H1000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="n">
         <v>0</v>
       </c>
-      <c r="J1000" t="n">
-        <v>235</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="inlineStr">
         <is>
@@ -36480,14 +36800,12 @@
         <v>236.1199999999999</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="n">
         <v>0</v>
       </c>
-      <c r="J1001" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="inlineStr">
         <is>
@@ -36521,14 +36839,12 @@
         <v>236.1166666666666</v>
       </c>
       <c r="H1002" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="n">
         <v>0</v>
       </c>
-      <c r="J1002" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="inlineStr">
         <is>
@@ -36562,14 +36878,12 @@
         <v>236.1133333333333</v>
       </c>
       <c r="H1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="n">
         <v>0</v>
       </c>
-      <c r="J1003" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="inlineStr">
         <is>
@@ -36603,14 +36917,12 @@
         <v>236.1099999999999</v>
       </c>
       <c r="H1004" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="n">
         <v>0</v>
       </c>
-      <c r="J1004" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="inlineStr">
         <is>
@@ -36644,14 +36956,12 @@
         <v>236.1099999999999</v>
       </c>
       <c r="H1005" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="n">
         <v>0</v>
       </c>
-      <c r="J1005" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="inlineStr">
         <is>
@@ -36685,14 +36995,12 @@
         <v>236.1216666666666</v>
       </c>
       <c r="H1006" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="n">
         <v>0</v>
       </c>
-      <c r="J1006" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="inlineStr">
         <is>
@@ -36726,14 +37034,12 @@
         <v>236.1299999999999</v>
       </c>
       <c r="H1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="n">
         <v>0</v>
       </c>
-      <c r="J1007" t="n">
-        <v>237</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="inlineStr">
         <is>
@@ -36767,14 +37073,12 @@
         <v>236.1283333333332</v>
       </c>
       <c r="H1008" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="n">
         <v>0</v>
       </c>
-      <c r="J1008" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="inlineStr">
         <is>
@@ -36808,14 +37112,12 @@
         <v>236.1216666666666</v>
       </c>
       <c r="H1009" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="n">
         <v>0</v>
       </c>
-      <c r="J1009" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="inlineStr">
         <is>
@@ -36849,14 +37151,12 @@
         <v>236.1116666666666</v>
       </c>
       <c r="H1010" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="n">
         <v>0</v>
       </c>
-      <c r="J1010" t="n">
-        <v>235.7</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="inlineStr">
         <is>
@@ -36890,14 +37190,12 @@
         <v>236.1149999999999</v>
       </c>
       <c r="H1011" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="n">
         <v>0</v>
       </c>
-      <c r="J1011" t="n">
-        <v>235.6</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="inlineStr">
         <is>
@@ -36931,14 +37229,12 @@
         <v>236.1083333333332</v>
       </c>
       <c r="H1012" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="n">
         <v>0</v>
       </c>
-      <c r="J1012" t="n">
-        <v>235.6</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="inlineStr">
         <is>
@@ -36972,14 +37268,12 @@
         <v>236.1049999999999</v>
       </c>
       <c r="H1013" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="n">
         <v>0</v>
       </c>
-      <c r="J1013" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="inlineStr">
         <is>
@@ -37013,14 +37307,12 @@
         <v>236.0999999999999</v>
       </c>
       <c r="H1014" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="n">
         <v>0</v>
       </c>
-      <c r="J1014" t="n">
-        <v>235.7</v>
-      </c>
+      <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="inlineStr">
         <is>
@@ -37054,14 +37346,12 @@
         <v>236.0933333333333</v>
       </c>
       <c r="H1015" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="n">
         <v>0</v>
       </c>
-      <c r="J1015" t="n">
-        <v>235.7</v>
-      </c>
+      <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="inlineStr">
         <is>
@@ -37095,14 +37385,12 @@
         <v>236.0833333333333</v>
       </c>
       <c r="H1016" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="n">
         <v>0</v>
       </c>
-      <c r="J1016" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="inlineStr">
         <is>
@@ -37136,14 +37424,12 @@
         <v>236.0783333333333</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="n">
         <v>0</v>
       </c>
-      <c r="J1017" t="n">
-        <v>235.7</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="inlineStr">
         <is>
@@ -37177,14 +37463,12 @@
         <v>236.0783333333333</v>
       </c>
       <c r="H1018" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="n">
         <v>0</v>
       </c>
-      <c r="J1018" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="inlineStr">
         <is>
@@ -37218,14 +37502,12 @@
         <v>236.0766666666667</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="n">
         <v>0</v>
       </c>
-      <c r="J1019" t="n">
-        <v>235.8</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="inlineStr">
         <is>
@@ -37259,14 +37541,12 @@
         <v>236.085</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="n">
         <v>0</v>
       </c>
-      <c r="J1020" t="n">
-        <v>235.8</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="inlineStr">
         <is>
@@ -37300,14 +37580,12 @@
         <v>236.0949999999999</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="n">
         <v>0</v>
       </c>
-      <c r="J1021" t="n">
-        <v>235.7</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="inlineStr">
         <is>
@@ -37341,14 +37619,12 @@
         <v>236.0983333333333</v>
       </c>
       <c r="H1022" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="n">
         <v>0</v>
       </c>
-      <c r="J1022" t="n">
-        <v>235.8</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="inlineStr">
         <is>
@@ -37382,14 +37658,12 @@
         <v>236.0983333333333</v>
       </c>
       <c r="H1023" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="n">
         <v>0</v>
       </c>
-      <c r="J1023" t="n">
-        <v>235.6</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="inlineStr">
         <is>
@@ -37423,14 +37697,12 @@
         <v>236.0916666666666</v>
       </c>
       <c r="H1024" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="n">
         <v>0</v>
       </c>
-      <c r="J1024" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="inlineStr">
         <is>
@@ -37464,14 +37736,12 @@
         <v>236.0916666666666</v>
       </c>
       <c r="H1025" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="n">
         <v>0</v>
       </c>
-      <c r="J1025" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="inlineStr">
         <is>
@@ -37505,14 +37775,12 @@
         <v>236.095</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="n">
         <v>0</v>
       </c>
-      <c r="J1026" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="inlineStr">
         <is>
@@ -37546,14 +37814,12 @@
         <v>236.0966666666667</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="n">
         <v>0</v>
       </c>
-      <c r="J1027" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="inlineStr">
         <is>
@@ -37587,14 +37853,12 @@
         <v>236.1</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="n">
         <v>0</v>
       </c>
-      <c r="J1028" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="inlineStr">
         <is>
@@ -37628,14 +37892,12 @@
         <v>236.1016666666667</v>
       </c>
       <c r="H1029" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="n">
         <v>0</v>
       </c>
-      <c r="J1029" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="inlineStr">
         <is>
@@ -37669,14 +37931,12 @@
         <v>236.1033333333334</v>
       </c>
       <c r="H1030" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="n">
         <v>0</v>
       </c>
-      <c r="J1030" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="inlineStr">
         <is>
@@ -37710,14 +37970,12 @@
         <v>236.0983333333333</v>
       </c>
       <c r="H1031" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="n">
         <v>0</v>
       </c>
-      <c r="J1031" t="n">
-        <v>236</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="inlineStr">
         <is>
@@ -37751,14 +38009,12 @@
         <v>236.095</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="n">
         <v>0</v>
       </c>
-      <c r="J1032" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="inlineStr">
         <is>
@@ -37792,14 +38048,12 @@
         <v>236.0983333333333</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="n">
         <v>0</v>
       </c>
-      <c r="J1033" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="inlineStr">
         <is>
@@ -37833,14 +38087,12 @@
         <v>236.1</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="n">
         <v>0</v>
       </c>
-      <c r="J1034" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="inlineStr">
         <is>
@@ -37874,14 +38126,12 @@
         <v>236.105</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="n">
         <v>0</v>
       </c>
-      <c r="J1035" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="inlineStr">
         <is>
@@ -37915,14 +38165,12 @@
         <v>236.1083333333333</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="n">
         <v>0</v>
       </c>
-      <c r="J1036" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="inlineStr">
         <is>
@@ -37956,14 +38204,12 @@
         <v>236.1083333333333</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="n">
         <v>0</v>
       </c>
-      <c r="J1037" t="n">
-        <v>235.6</v>
-      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="inlineStr">
         <is>
@@ -37997,14 +38243,12 @@
         <v>236.115</v>
       </c>
       <c r="H1038" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="n">
         <v>0</v>
       </c>
-      <c r="J1038" t="n">
-        <v>235.6</v>
-      </c>
+      <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="inlineStr">
         <is>
@@ -38038,14 +38282,12 @@
         <v>236.1266666666667</v>
       </c>
       <c r="H1039" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="n">
         <v>0</v>
       </c>
-      <c r="J1039" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="inlineStr">
         <is>
@@ -38079,14 +38321,12 @@
         <v>236.1316666666667</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="n">
         <v>0</v>
       </c>
-      <c r="J1040" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="inlineStr">
         <is>
@@ -38120,14 +38360,12 @@
         <v>236.1016666666667</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="n">
         <v>0</v>
       </c>
-      <c r="J1041" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="inlineStr">
         <is>
@@ -38161,14 +38399,12 @@
         <v>236.0783333333333</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="n">
         <v>0</v>
       </c>
-      <c r="J1042" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="inlineStr">
         <is>
@@ -38202,14 +38438,12 @@
         <v>236.0633333333333</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="n">
         <v>0</v>
       </c>
-      <c r="J1043" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="inlineStr">
         <is>
@@ -38243,14 +38477,12 @@
         <v>236.035</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="n">
         <v>0</v>
       </c>
-      <c r="J1044" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="inlineStr">
         <is>
@@ -38284,14 +38516,12 @@
         <v>236.0216666666666</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="n">
         <v>0</v>
       </c>
-      <c r="J1045" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="inlineStr">
         <is>
@@ -38325,14 +38555,12 @@
         <v>236.0033333333333</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="n">
         <v>0</v>
       </c>
-      <c r="J1046" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="inlineStr">
         <is>
@@ -38366,14 +38594,12 @@
         <v>235.985</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="n">
         <v>0</v>
       </c>
-      <c r="J1047" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="inlineStr">
         <is>
@@ -38407,14 +38633,12 @@
         <v>235.9783333333333</v>
       </c>
       <c r="H1048" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="n">
         <v>0</v>
       </c>
-      <c r="J1048" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="inlineStr">
         <is>
@@ -38448,14 +38672,12 @@
         <v>235.9666666666666</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="n">
         <v>0</v>
       </c>
-      <c r="J1049" t="n">
-        <v>236</v>
-      </c>
+      <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="inlineStr">
         <is>
@@ -38489,14 +38711,12 @@
         <v>235.9433333333333</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="n">
         <v>0</v>
       </c>
-      <c r="J1050" t="n">
-        <v>235.7</v>
-      </c>
+      <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="inlineStr">
         <is>
@@ -38530,14 +38750,12 @@
         <v>235.9166666666666</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="n">
         <v>0</v>
       </c>
-      <c r="J1051" t="n">
-        <v>235.6</v>
-      </c>
+      <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="inlineStr">
         <is>
@@ -38571,14 +38789,12 @@
         <v>235.8883333333333</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="n">
         <v>0</v>
       </c>
-      <c r="J1052" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="inlineStr">
         <is>
@@ -38612,14 +38828,12 @@
         <v>235.84</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="n">
         <v>0</v>
       </c>
-      <c r="J1053" t="n">
-        <v>235.9</v>
-      </c>
+      <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="inlineStr">
         <is>
@@ -38653,14 +38867,12 @@
         <v>235.8</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="n">
         <v>0</v>
       </c>
-      <c r="J1054" t="n">
-        <v>235.6</v>
-      </c>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="inlineStr">
         <is>
@@ -38694,14 +38906,12 @@
         <v>235.765</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="n">
         <v>0</v>
       </c>
-      <c r="J1055" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="inlineStr">
         <is>
@@ -38735,14 +38945,12 @@
         <v>235.7333333333333</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="n">
         <v>0</v>
       </c>
-      <c r="J1056" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="inlineStr">
         <is>
@@ -38776,14 +38984,12 @@
         <v>235.7283333333334</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="n">
         <v>0</v>
       </c>
-      <c r="J1057" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="inlineStr">
         <is>
@@ -38817,14 +39023,12 @@
         <v>235.7383333333333</v>
       </c>
       <c r="H1058" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="n">
         <v>0</v>
       </c>
-      <c r="J1058" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="inlineStr">
         <is>
@@ -38858,14 +39062,12 @@
         <v>235.7416666666667</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="n">
         <v>0</v>
       </c>
-      <c r="J1059" t="n">
-        <v>235.3</v>
-      </c>
+      <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="inlineStr">
         <is>
@@ -38899,14 +39101,12 @@
         <v>235.7333333333333</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="n">
         <v>0</v>
       </c>
-      <c r="J1060" t="n">
-        <v>235.4</v>
-      </c>
+      <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="inlineStr">
         <is>

--- a/BackTest/2020-01-11 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-11 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -14707,7 +14707,7 @@
         <v>186398.94497717</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>165679.22957717</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>167883.0630771701</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>119484.1295771701</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>110627.22997717</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>110627.22997717</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>100409.97437717</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>76531.99477717004</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>65587.70907717003</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>24500.56607717003</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>26262.71787717003</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>22834.43427717004</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>22047.25027717003</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>16220.00577717003</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>16720.00577717003</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>15428.14407717003</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>15278.14407717003</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>15278.14407717003</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>15253.14407717003</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>15228.14407717003</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-10502.17652282996</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-24510.38092282997</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-14603.41512282997</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>1143.715977170035</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-42748.33352282996</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-33867.76662282996</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>65550.14406043006</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>76865.13636043006</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>73789.33626043006</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>2943.321824240062</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>5735.625124240061</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>4038.067924240061</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>5582.798424240061</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>6143.69842424006</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>1245.45022424006</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>4546.467824240061</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>4546.467824240061</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-7526.84387575994</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-7709.52337575994</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-5245.723275759939</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -28006,11 +28006,17 @@
         <v>-31553.43752877996</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>235.5</v>
+      </c>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28039,11 +28045,17 @@
         <v>-31553.43752877996</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>235.4</v>
+      </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28076,7 +28088,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28105,11 +28121,17 @@
         <v>-29662.26692877996</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>236</v>
+      </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28138,11 +28160,17 @@
         <v>-29662.26692877996</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>236</v>
+      </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28175,7 +28203,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28208,7 +28240,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +28277,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28270,11 +28310,17 @@
         <v>-31135.59122877996</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>235.8</v>
+      </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28303,11 +28349,17 @@
         <v>-31135.59122877996</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>235.9</v>
+      </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28336,11 +28388,17 @@
         <v>-21727.61232877996</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>235.9</v>
+      </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +28431,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +28468,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +28505,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +28542,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +28579,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28538,7 +28616,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28567,11 +28649,17 @@
         <v>-22893.95782877996</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>236.8</v>
+      </c>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28604,7 +28692,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28637,7 +28729,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28670,7 +28766,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28703,7 +28803,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28736,7 +28840,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28769,7 +28877,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28802,7 +28914,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28835,7 +28951,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28868,7 +28988,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28901,7 +29025,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28934,7 +29062,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28967,7 +29099,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29000,7 +29136,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29033,7 +29173,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29066,7 +29210,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29099,7 +29247,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29132,7 +29284,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29165,7 +29321,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29198,7 +29358,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29231,7 +29395,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29264,7 +29432,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29297,7 +29469,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29330,7 +29506,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29363,7 +29543,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29396,7 +29580,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29429,7 +29617,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29462,7 +29654,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29495,7 +29691,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29528,7 +29728,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29561,7 +29765,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29594,7 +29802,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29627,7 +29839,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29660,7 +29876,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29693,7 +29913,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29726,7 +29950,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29759,7 +29987,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +30024,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29825,7 +30061,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29858,7 +30098,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29891,7 +30135,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29924,7 +30172,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29957,7 +30209,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29990,7 +30246,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30023,7 +30283,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30056,7 +30320,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30089,7 +30357,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30122,7 +30394,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30155,7 +30431,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30188,7 +30468,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30221,7 +30505,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30254,7 +30542,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30287,7 +30579,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30320,7 +30616,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30353,7 +30653,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30386,7 +30690,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30419,7 +30727,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30452,7 +30764,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30485,7 +30801,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30518,7 +30838,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30551,7 +30875,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30584,7 +30912,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30617,7 +30949,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30650,7 +30986,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30683,7 +31023,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30716,7 +31060,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30749,7 +31097,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30782,7 +31134,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30815,7 +31171,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30848,7 +31208,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30881,7 +31245,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30914,7 +31282,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30947,7 +31319,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30980,7 +31356,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31013,7 +31393,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31046,7 +31430,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31079,7 +31467,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31112,7 +31504,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31145,7 +31541,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31178,7 +31578,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31211,7 +31615,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31244,7 +31652,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31277,7 +31689,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31310,7 +31726,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31343,7 +31763,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31376,7 +31800,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31409,7 +31837,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31442,7 +31874,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31475,7 +31911,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31508,7 +31948,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31541,7 +31985,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31574,7 +32022,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31607,7 +32059,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31640,7 +32096,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31673,7 +32133,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31706,7 +32170,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31739,7 +32207,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31772,7 +32244,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -31805,7 +32281,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31838,7 +32318,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31871,7 +32355,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31904,7 +32392,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31937,7 +32429,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31970,7 +32466,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32003,7 +32503,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32036,7 +32540,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32069,7 +32577,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32102,7 +32614,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32135,7 +32651,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32168,7 +32688,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32201,7 +32725,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32234,7 +32762,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32267,7 +32799,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32300,7 +32836,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32333,7 +32873,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32366,7 +32910,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32399,7 +32947,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32432,7 +32984,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32465,7 +33021,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32498,7 +33058,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32531,7 +33095,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32564,7 +33132,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32597,7 +33169,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32630,7 +33206,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32663,7 +33243,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32696,7 +33280,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32729,7 +33317,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -32762,7 +33354,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -32795,7 +33391,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -32828,7 +33428,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -32861,7 +33465,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -32894,7 +33502,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -32927,7 +33539,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -32960,7 +33576,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -32993,7 +33613,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33026,7 +33650,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33059,7 +33687,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33092,7 +33724,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33125,7 +33761,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33158,7 +33798,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33191,7 +33835,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33224,7 +33872,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33257,7 +33909,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33290,7 +33946,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33323,7 +33983,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33356,7 +34020,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33389,7 +34057,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33422,7 +34094,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33455,7 +34131,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33488,7 +34168,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33521,7 +34205,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33554,7 +34242,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33587,7 +34279,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33620,7 +34316,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33653,7 +34353,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33686,7 +34390,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33719,7 +34427,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33752,7 +34464,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33785,7 +34501,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33818,7 +34538,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33851,7 +34575,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33884,7 +34612,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33917,7 +34649,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33950,7 +34686,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33983,7 +34723,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34016,7 +34760,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34049,7 +34797,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34082,7 +34834,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34115,7 +34871,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34148,7 +34908,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34181,7 +34945,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34214,7 +34982,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34247,7 +35019,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34280,7 +35056,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34313,7 +35093,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34346,7 +35130,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34375,11 +35163,17 @@
         <v>-35607.23291472996</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>235.4</v>
+      </c>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34408,11 +35202,17 @@
         <v>-37931.86511472996</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>235.6</v>
+      </c>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34441,11 +35241,17 @@
         <v>-39379.60801472996</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>235.5</v>
+      </c>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34474,11 +35280,17 @@
         <v>-38302.27221472996</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>235.2</v>
+      </c>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34507,11 +35319,17 @@
         <v>-43290.91271472996</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>235.4</v>
+      </c>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34540,7 +35358,7 @@
         <v>-43290.91271472996</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1035" t="n">
         <v>235.3</v>
@@ -34548,7 +35366,7 @@
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1035" t="n">
@@ -34579,9 +35397,11 @@
         <v>-30117.02681472996</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>235.3</v>
+      </c>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
@@ -34616,9 +35436,11 @@
         <v>-32935.00451472996</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>235.4</v>
+      </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
@@ -34653,9 +35475,11 @@
         <v>-84639.47031472996</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>235.2</v>
+      </c>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
@@ -34875,9 +35699,11 @@
         <v>-82516.47561472996</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>237</v>
+      </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
@@ -34912,9 +35738,11 @@
         <v>-79427.46071472997</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>236.1</v>
+      </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
@@ -34949,9 +35777,11 @@
         <v>-79427.46071472997</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>236.4</v>
+      </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
@@ -34986,9 +35816,11 @@
         <v>-79427.46071472997</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>236.4</v>
+      </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
@@ -35023,9 +35855,11 @@
         <v>-82042.88641472996</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>236.4</v>
+      </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
@@ -35060,9 +35894,11 @@
         <v>-61760.83031472996</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>236.1</v>
+      </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
@@ -35097,9 +35933,11 @@
         <v>-61760.83031472996</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>237.3</v>
+      </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -36688,7 +37526,7 @@
         <v>-68062.82971472996</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1093" t="n">
         <v>235.4</v>
@@ -36727,7 +37565,7 @@
         <v>-63884.08271472996</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1094" t="n">
         <v>235.5</v>
@@ -36766,7 +37604,7 @@
         <v>-65958.77491472996</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1095" t="n">
         <v>235.6</v>
@@ -36805,7 +37643,7 @@
         <v>-69095.30301472996</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1096" t="n">
         <v>235.5</v>
@@ -36844,7 +37682,7 @@
         <v>-66774.91271472996</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1097" t="n">
         <v>235.4</v>
@@ -36883,7 +37721,7 @@
         <v>-66774.91271472996</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1098" t="n">
         <v>235.6</v>
@@ -36922,7 +37760,7 @@
         <v>-66774.91271472996</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1099" t="n">
         <v>235.6</v>
@@ -36961,11 +37799,9 @@
         <v>-69341.72061472996</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1100" t="n">
-        <v>235.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
@@ -37000,7 +37836,7 @@
         <v>-71456.42821472995</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1101" t="n">
         <v>235.5</v>
@@ -37039,7 +37875,7 @@
         <v>-71456.42821472995</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1102" t="n">
         <v>235.3</v>
@@ -37078,7 +37914,7 @@
         <v>-71456.42821472995</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1103" t="n">
         <v>235.3</v>
@@ -37117,7 +37953,7 @@
         <v>-71456.42821472995</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1104" t="n">
         <v>235.3</v>
@@ -37156,7 +37992,7 @@
         <v>-71456.42821472995</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1105" t="n">
         <v>235.3</v>
@@ -37195,7 +38031,7 @@
         <v>-71456.42821472995</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1106" t="n">
         <v>235.3</v>
@@ -37234,7 +38070,7 @@
         <v>-66436.67841472995</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1107" t="n">
         <v>235.3</v>
@@ -37273,7 +38109,7 @@
         <v>-72353.80441472995</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1108" t="n">
         <v>236</v>
@@ -37312,11 +38148,9 @@
         <v>-67530.69341472995</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1109" t="n">
-        <v>235.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
@@ -37351,11 +38185,9 @@
         <v>-71268.67181472995</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1110" t="n">
-        <v>235.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
@@ -37390,7 +38222,7 @@
         <v>-68761.88331472996</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1111" t="n">
         <v>235.7</v>
@@ -37429,9 +38261,11 @@
         <v>-72445.69411472997</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>236.1</v>
+      </c>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
@@ -37466,9 +38300,11 @@
         <v>-76547.23171472996</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>235.8</v>
+      </c>
       <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
@@ -37503,7 +38339,7 @@
         <v>-74289.13451472996</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1114" t="n">
         <v>235.4</v>
@@ -37542,7 +38378,7 @@
         <v>-76598.24451472996</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1115" t="n">
         <v>235.7</v>
@@ -37581,7 +38417,7 @@
         <v>-72739.95441472996</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1116" t="n">
         <v>235.4</v>
@@ -37620,7 +38456,7 @@
         <v>-72739.95441472996</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1117" t="n">
         <v>235.5</v>
@@ -37659,9 +38495,11 @@
         <v>-76774.18231472996</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>235.5</v>
+      </c>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
@@ -37696,9 +38534,11 @@
         <v>-72786.44811472995</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>235.3</v>
+      </c>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
@@ -37733,9 +38573,11 @@
         <v>-75550.11191472995</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>235.7</v>
+      </c>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
@@ -37770,9 +38612,11 @@
         <v>-71919.53721472995</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>235.4</v>
+      </c>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
@@ -37807,9 +38651,11 @@
         <v>-71919.53721472995</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>235.7</v>
+      </c>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
@@ -37844,9 +38690,11 @@
         <v>-71919.53721472995</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>235.7</v>
+      </c>
       <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
@@ -37881,9 +38729,11 @@
         <v>-75393.63451472994</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>235.7</v>
+      </c>
       <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
@@ -37918,9 +38768,11 @@
         <v>-75393.63451472994</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>235.6</v>
+      </c>
       <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
@@ -37955,9 +38807,11 @@
         <v>-68237.69811472994</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>235.6</v>
+      </c>
       <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
@@ -37992,9 +38846,11 @@
         <v>-73148.35411472994</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>236.5</v>
+      </c>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
@@ -38029,9 +38885,11 @@
         <v>-63990.31011472994</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>235.8</v>
+      </c>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
@@ -38081,6 +38939,6 @@
       <c r="M1129" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-11 BackTest LUNA.xlsx
@@ -1771,7 +1771,7 @@
         <v>-4146.641414109994</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-8784.219214109993</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-11099.34421410999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-656.1131285800002</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>7534.61047142</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>28461.09087142</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>44226.73497142</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>48731.29897142</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>101392.14697142</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>135288.33637717</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>182545.46247717</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>182545.46247717</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>164041.61387717</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>155603.37067717</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>167266.25857717</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>163514.38977717</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>163514.38977717</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>186398.94497717</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>165679.22957717</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>167883.0630771701</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>119484.1295771701</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>16720.00577717003</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>15253.14407717003</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>15228.14407717003</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-10502.17652282996</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-24510.38092282997</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-14603.41512282997</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-17863.85672323994</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-14644.59532323994</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -35728,11 +35728,17 @@
         <v>-76026.49821472995</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>236.3</v>
+      </c>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -35761,11 +35767,17 @@
         <v>-76026.49821472995</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>235.7</v>
+      </c>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -35798,7 +35810,11 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -35831,7 +35847,11 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -35864,7 +35884,11 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -35897,7 +35921,11 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -35930,7 +35958,11 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -35963,7 +35995,11 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -35996,7 +36032,11 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36029,7 +36069,11 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36062,7 +36106,11 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36091,11 +36139,17 @@
         <v>-75002.43731472995</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>235.5</v>
+      </c>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36124,11 +36178,17 @@
         <v>-70859.88531472995</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>235.4</v>
+      </c>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36157,11 +36217,17 @@
         <v>-73301.14251472996</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>235.5</v>
+      </c>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36190,11 +36256,17 @@
         <v>-69771.67931472996</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>235.3</v>
+      </c>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36223,11 +36295,17 @@
         <v>-72949.19551472996</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>235.6</v>
+      </c>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36256,11 +36334,17 @@
         <v>-72949.19551472996</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>235.5</v>
+      </c>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36289,11 +36373,17 @@
         <v>-72949.19551472996</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>235.5</v>
+      </c>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36322,11 +36412,17 @@
         <v>-72949.19551472996</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>235.5</v>
+      </c>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36355,11 +36451,17 @@
         <v>-75862.81101472996</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>235.5</v>
+      </c>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36388,11 +36490,17 @@
         <v>-75862.81101472996</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>235.3</v>
+      </c>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36421,11 +36529,17 @@
         <v>-71774.11021472995</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>235.3</v>
+      </c>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36462,7 +36576,7 @@
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1093" t="n">
@@ -36493,9 +36607,11 @@
         <v>-63884.08271472996</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>235.5</v>
+      </c>
       <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
@@ -36530,9 +36646,11 @@
         <v>-65958.77491472996</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>235.6</v>
+      </c>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
@@ -36567,9 +36685,11 @@
         <v>-69095.30301472996</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>235.5</v>
+      </c>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
@@ -36643,9 +36763,11 @@
         <v>-66774.91271472996</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>235.6</v>
+      </c>
       <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
